--- a/input/filters not in use/j_filter_Industry_EII.xlsx
+++ b/input/filters not in use/j_filter_Industry_EII.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph Masenda\Thinkpad machine\Documents\Softwares\ENGINEERING\Python Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\savan\OneDrive\Desktop\ESRG DDPT template\DDPTemplateAutomationVFinal\input\filters not in use\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37C1F1A-66AC-4DC2-8F40-E2A5E66778F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DBD102-B38F-4AE2-A6F4-E81DB615F7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDUSTRY_EII (DB)_REF" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -693,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE6DE84-95CA-4CAA-B873-3AFC6B5F817C}">
   <dimension ref="A1:CH296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,8 +715,8 @@
     <col min="1" max="3" width="8.77734375" style="1"/>
     <col min="4" max="4" width="10.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.21875" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.77734375" style="1"/>
     <col min="10" max="10" width="12.21875" style="1" customWidth="1"/>
